--- a/data/pca/factorExposure/factorExposure_2009-08-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01767219317912804</v>
+        <v>0.01675153753527028</v>
       </c>
       <c r="C2">
-        <v>-0.001540451719115706</v>
+        <v>-0.0009079976914924189</v>
       </c>
       <c r="D2">
-        <v>-0.003840462099503111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009465969109951978</v>
+      </c>
+      <c r="E2">
+        <v>0.002116835224929046</v>
+      </c>
+      <c r="F2">
+        <v>-0.01324503975850585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.0954751521286778</v>
+        <v>0.09372947376365687</v>
       </c>
       <c r="C4">
-        <v>-0.02097011748196008</v>
+        <v>-0.01468658449050526</v>
       </c>
       <c r="D4">
-        <v>-0.06620078441922234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08366550236544899</v>
+      </c>
+      <c r="E4">
+        <v>0.02871036310538784</v>
+      </c>
+      <c r="F4">
+        <v>0.03300241342329032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1488991290472623</v>
+        <v>0.1594892208510497</v>
       </c>
       <c r="C6">
-        <v>-0.02763028343594499</v>
+        <v>-0.02708791910448193</v>
       </c>
       <c r="D6">
-        <v>0.02609555649362924</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02529589978673192</v>
+      </c>
+      <c r="E6">
+        <v>0.008786798196302863</v>
+      </c>
+      <c r="F6">
+        <v>0.04213799776255713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06405501228405516</v>
+        <v>0.06356085254253081</v>
       </c>
       <c r="C7">
-        <v>-0.002876693076596739</v>
+        <v>0.001698719901022336</v>
       </c>
       <c r="D7">
-        <v>-0.03972259456528927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05237497458644148</v>
+      </c>
+      <c r="E7">
+        <v>0.01194307252999288</v>
+      </c>
+      <c r="F7">
+        <v>0.0466295659207769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0636791556590396</v>
+        <v>0.05803054586790204</v>
       </c>
       <c r="C8">
-        <v>0.009870398213546391</v>
+        <v>0.01306527988493996</v>
       </c>
       <c r="D8">
-        <v>-0.01791368220449951</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03182973437022766</v>
+      </c>
+      <c r="E8">
+        <v>0.01766513894065658</v>
+      </c>
+      <c r="F8">
+        <v>-0.02588193345664683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07358069346002503</v>
+        <v>0.07089182512434807</v>
       </c>
       <c r="C9">
-        <v>-0.01729982608214876</v>
+        <v>-0.01029979306992035</v>
       </c>
       <c r="D9">
-        <v>-0.06850720107424922</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08720483035385351</v>
+      </c>
+      <c r="E9">
+        <v>0.02394487521342211</v>
+      </c>
+      <c r="F9">
+        <v>0.04704983332397338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08239672871205707</v>
+        <v>0.08986404786602102</v>
       </c>
       <c r="C10">
-        <v>-0.01215146764683281</v>
+        <v>-0.02059458132334834</v>
       </c>
       <c r="D10">
-        <v>0.1666471102727886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1628930527475941</v>
+      </c>
+      <c r="E10">
+        <v>-0.03194658558411249</v>
+      </c>
+      <c r="F10">
+        <v>-0.05751171730264981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09348965819417203</v>
+        <v>0.08823710465286877</v>
       </c>
       <c r="C11">
-        <v>-0.018144361703217</v>
+        <v>-0.010414432081112</v>
       </c>
       <c r="D11">
-        <v>-0.09630764488194073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169363561025569</v>
+      </c>
+      <c r="E11">
+        <v>0.04637115664729168</v>
+      </c>
+      <c r="F11">
+        <v>0.02319446828482836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09966918278973377</v>
+        <v>0.09153120809171457</v>
       </c>
       <c r="C12">
-        <v>-0.01608473699533918</v>
+        <v>-0.007737497326250385</v>
       </c>
       <c r="D12">
-        <v>-0.09962701643315289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316502767285886</v>
+      </c>
+      <c r="E12">
+        <v>0.04564913107969672</v>
+      </c>
+      <c r="F12">
+        <v>0.03148253983555268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04443334711802893</v>
+        <v>0.04170833848434597</v>
       </c>
       <c r="C13">
-        <v>-0.005953268175934489</v>
+        <v>-0.002458448201688319</v>
       </c>
       <c r="D13">
-        <v>-0.0308967712382696</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05361663797301554</v>
+      </c>
+      <c r="E13">
+        <v>-0.003762659628015644</v>
+      </c>
+      <c r="F13">
+        <v>0.0008822212926761487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.0199288792778666</v>
+        <v>0.02400207017709059</v>
       </c>
       <c r="C14">
-        <v>-0.01537517813140082</v>
+        <v>-0.01380268873553877</v>
       </c>
       <c r="D14">
-        <v>-0.0245405399005276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03370853633735741</v>
+      </c>
+      <c r="E14">
+        <v>0.01908035357626863</v>
+      </c>
+      <c r="F14">
+        <v>0.01399315910304174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03502107574147709</v>
+        <v>0.0331793447976351</v>
       </c>
       <c r="C15">
-        <v>-0.007865868348760772</v>
+        <v>-0.004709437833669645</v>
       </c>
       <c r="D15">
-        <v>-0.02985925703234295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0450838702923236</v>
+      </c>
+      <c r="E15">
+        <v>0.006030063903930124</v>
+      </c>
+      <c r="F15">
+        <v>0.02534742546899769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07883614224549117</v>
+        <v>0.0740000336782716</v>
       </c>
       <c r="C16">
-        <v>-0.008946735995881772</v>
+        <v>-0.0009404085906537941</v>
       </c>
       <c r="D16">
-        <v>-0.09823944372348249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1273192445556428</v>
+      </c>
+      <c r="E16">
+        <v>0.06048759087613357</v>
+      </c>
+      <c r="F16">
+        <v>0.02765705878678379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0008266293151372715</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002100482213219645</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001611998183779524</v>
+      </c>
+      <c r="E17">
+        <v>0.0009681669331958714</v>
+      </c>
+      <c r="F17">
+        <v>-0.002305466956799427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01741480897123663</v>
+        <v>0.03698887206512949</v>
       </c>
       <c r="C18">
-        <v>0.003099644694562626</v>
+        <v>0.002855053008927023</v>
       </c>
       <c r="D18">
-        <v>-0.02996730991733599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01544647111278396</v>
+      </c>
+      <c r="E18">
+        <v>-0.008749544025896934</v>
+      </c>
+      <c r="F18">
+        <v>-0.008536722944182099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06612732296267523</v>
+        <v>0.06242960274628783</v>
       </c>
       <c r="C20">
-        <v>-0.00687691397695065</v>
+        <v>-0.0002239698442887842</v>
       </c>
       <c r="D20">
-        <v>-0.05015959555424828</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07696501229248437</v>
+      </c>
+      <c r="E20">
+        <v>0.05541332665172728</v>
+      </c>
+      <c r="F20">
+        <v>0.03035027949930544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04095299041194071</v>
+        <v>0.04145120465226086</v>
       </c>
       <c r="C21">
-        <v>-0.01012863616949548</v>
+        <v>-0.006490578704289819</v>
       </c>
       <c r="D21">
-        <v>-0.02959213152351505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03895170187333308</v>
+      </c>
+      <c r="E21">
+        <v>-3.232996401936693e-05</v>
+      </c>
+      <c r="F21">
+        <v>-0.02393932707657482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04063965943641062</v>
+        <v>0.0432607080164977</v>
       </c>
       <c r="C22">
-        <v>-0.0008757430568513922</v>
+        <v>-0.0005094386353879194</v>
       </c>
       <c r="D22">
-        <v>0.01184901398649631</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00403580670611204</v>
+      </c>
+      <c r="E22">
+        <v>0.0365352308342745</v>
+      </c>
+      <c r="F22">
+        <v>-0.03847545956107418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04060311731603886</v>
+        <v>0.04323661223490494</v>
       </c>
       <c r="C23">
-        <v>-0.000866033796334925</v>
+        <v>-0.0005009558813600551</v>
       </c>
       <c r="D23">
-        <v>0.0118295348695037</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004051329912812983</v>
+      </c>
+      <c r="E23">
+        <v>0.0367183119498687</v>
+      </c>
+      <c r="F23">
+        <v>-0.038435379022539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08483553176197783</v>
+        <v>0.0800364998528983</v>
       </c>
       <c r="C24">
-        <v>-0.009239236385544235</v>
+        <v>-0.001749335670984388</v>
       </c>
       <c r="D24">
-        <v>-0.1032002559466112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1198241494474392</v>
+      </c>
+      <c r="E24">
+        <v>0.04842031995634154</v>
+      </c>
+      <c r="F24">
+        <v>0.02979905574444323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08984784587683296</v>
+        <v>0.08480354752691799</v>
       </c>
       <c r="C25">
-        <v>-0.01167123602286853</v>
+        <v>-0.004277805348110506</v>
       </c>
       <c r="D25">
-        <v>-0.08980047207037144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.109386532310357</v>
+      </c>
+      <c r="E25">
+        <v>0.03200776510162775</v>
+      </c>
+      <c r="F25">
+        <v>0.0267280120986549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05905277766967819</v>
+        <v>0.05921705182217107</v>
       </c>
       <c r="C26">
-        <v>-0.01803422995912261</v>
+        <v>-0.0145310507858679</v>
       </c>
       <c r="D26">
-        <v>-0.01839847767078986</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04230485647509185</v>
+      </c>
+      <c r="E26">
+        <v>0.02978420105526444</v>
+      </c>
+      <c r="F26">
+        <v>-0.005047811979481827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1301941439531763</v>
+        <v>0.141449847106083</v>
       </c>
       <c r="C28">
-        <v>-0.01072720545567942</v>
+        <v>-0.02223481385783196</v>
       </c>
       <c r="D28">
-        <v>0.271523736163002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2612388610882987</v>
+      </c>
+      <c r="E28">
+        <v>-0.06743432944300162</v>
+      </c>
+      <c r="F28">
+        <v>0.003753771370754339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0264554138251957</v>
+        <v>0.02887477410655097</v>
       </c>
       <c r="C29">
-        <v>-0.00996639907229952</v>
+        <v>-0.008774830834907911</v>
       </c>
       <c r="D29">
-        <v>-0.02125151721355604</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03126652836274166</v>
+      </c>
+      <c r="E29">
+        <v>0.01406500791578593</v>
+      </c>
+      <c r="F29">
+        <v>-0.01257509471549087</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06698504842212832</v>
+        <v>0.05936944750924197</v>
       </c>
       <c r="C30">
-        <v>-0.01056008674420315</v>
+        <v>-0.00270084299331847</v>
       </c>
       <c r="D30">
-        <v>-0.05941450096648385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0878769201059595</v>
+      </c>
+      <c r="E30">
+        <v>0.01400179646813233</v>
+      </c>
+      <c r="F30">
+        <v>0.07985841126066819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05112831822130373</v>
+        <v>0.05132538875228827</v>
       </c>
       <c r="C31">
-        <v>-0.01704707057615179</v>
+        <v>-0.01566393601863291</v>
       </c>
       <c r="D31">
-        <v>-0.02033942950015241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02441625665477113</v>
+      </c>
+      <c r="E31">
+        <v>0.02884148859967697</v>
+      </c>
+      <c r="F31">
+        <v>-0.0009914407423056355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04785907077168317</v>
+        <v>0.05143758900702847</v>
       </c>
       <c r="C32">
-        <v>-0.002362960665023393</v>
+        <v>0.001825504523712935</v>
       </c>
       <c r="D32">
-        <v>-0.01956506253900371</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03625216809153656</v>
+      </c>
+      <c r="E32">
+        <v>0.03457195652411432</v>
+      </c>
+      <c r="F32">
+        <v>0.004256638973451906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0936629610091867</v>
+        <v>0.08853101207248029</v>
       </c>
       <c r="C33">
-        <v>-0.01425040625068802</v>
+        <v>-0.006440447916001474</v>
       </c>
       <c r="D33">
-        <v>-0.07724386907722</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1028407978631796</v>
+      </c>
+      <c r="E33">
+        <v>0.04476173707899744</v>
+      </c>
+      <c r="F33">
+        <v>0.03931946358763149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07179707929139843</v>
+        <v>0.06799188399297547</v>
       </c>
       <c r="C34">
-        <v>-0.0164373828291024</v>
+        <v>-0.01005386333003261</v>
       </c>
       <c r="D34">
-        <v>-0.08438044997844463</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1099640803077189</v>
+      </c>
+      <c r="E34">
+        <v>0.03502346100982739</v>
+      </c>
+      <c r="F34">
+        <v>0.03327390428709599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02399585772594356</v>
+        <v>0.02589344666329884</v>
       </c>
       <c r="C35">
-        <v>-0.002975360545572828</v>
+        <v>-0.002647194903122173</v>
       </c>
       <c r="D35">
-        <v>-0.006593119327519452</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01211074586424861</v>
+      </c>
+      <c r="E35">
+        <v>0.0128501793789079</v>
+      </c>
+      <c r="F35">
+        <v>0.001560524097919635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02708964127657309</v>
+        <v>0.02764776098439347</v>
       </c>
       <c r="C36">
-        <v>-0.008065723929894145</v>
+        <v>-0.00685761589922071</v>
       </c>
       <c r="D36">
-        <v>-0.03868459482407739</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0397884908754001</v>
+      </c>
+      <c r="E36">
+        <v>0.01674703919131989</v>
+      </c>
+      <c r="F36">
+        <v>0.01528321823744082</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-6.251624649128935e-06</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0005196773773910916</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002090315221185592</v>
+      </c>
+      <c r="E37">
+        <v>-0.0007382204672614014</v>
+      </c>
+      <c r="F37">
+        <v>-0.001674637001188629</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1173407748177885</v>
+        <v>0.1037489342814001</v>
       </c>
       <c r="C39">
-        <v>-0.02494021358950583</v>
+        <v>-0.01563299458567954</v>
       </c>
       <c r="D39">
-        <v>-0.1393954864017314</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1538670308124063</v>
+      </c>
+      <c r="E39">
+        <v>0.05891977652514428</v>
+      </c>
+      <c r="F39">
+        <v>0.03092147073266842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04066252875715203</v>
+        <v>0.04373667653091567</v>
       </c>
       <c r="C40">
-        <v>-0.009858393741606776</v>
+        <v>-0.00746826981050606</v>
       </c>
       <c r="D40">
-        <v>-0.007904198137757775</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03050815291739279</v>
+      </c>
+      <c r="E40">
+        <v>0.002032934431922563</v>
+      </c>
+      <c r="F40">
+        <v>-0.01907285545804163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02566867974002979</v>
+        <v>0.02779130226526707</v>
       </c>
       <c r="C41">
-        <v>-0.007157328486461716</v>
+        <v>-0.006839921659853612</v>
       </c>
       <c r="D41">
-        <v>-0.009807792572333392</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01082812873778485</v>
+      </c>
+      <c r="E41">
+        <v>0.01229191151869423</v>
+      </c>
+      <c r="F41">
+        <v>-0.005493242491994794</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04247379629409248</v>
+        <v>0.04113613564029983</v>
       </c>
       <c r="C43">
-        <v>-0.008295573989915466</v>
+        <v>-0.007163553738341991</v>
       </c>
       <c r="D43">
-        <v>-0.01320347393424939</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01870474279566102</v>
+      </c>
+      <c r="E43">
+        <v>0.02558485768113082</v>
+      </c>
+      <c r="F43">
+        <v>-0.01267574813190051</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07647517574120735</v>
+        <v>0.08010250497573339</v>
       </c>
       <c r="C44">
-        <v>-0.02730423452732859</v>
+        <v>-0.01935928241928809</v>
       </c>
       <c r="D44">
-        <v>-0.0775330891513982</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09777589032060327</v>
+      </c>
+      <c r="E44">
+        <v>0.06182848241413491</v>
+      </c>
+      <c r="F44">
+        <v>0.1604624843186631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02069082278777988</v>
+        <v>0.02327946005147535</v>
       </c>
       <c r="C46">
-        <v>-0.003825036081733233</v>
+        <v>-0.003315278019716039</v>
       </c>
       <c r="D46">
-        <v>-0.005982845061845825</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01282661115329357</v>
+      </c>
+      <c r="E46">
+        <v>0.02594140392041409</v>
+      </c>
+      <c r="F46">
+        <v>-0.007092814858070819</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05353761616682027</v>
+        <v>0.0527559133883742</v>
       </c>
       <c r="C47">
-        <v>-0.004588679656558356</v>
+        <v>-0.003857595358250854</v>
       </c>
       <c r="D47">
-        <v>-0.007012843676323211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01151523049573732</v>
+      </c>
+      <c r="E47">
+        <v>0.0234220847681442</v>
+      </c>
+      <c r="F47">
+        <v>-0.0323047918741512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04959938275065624</v>
+        <v>0.05011740758952377</v>
       </c>
       <c r="C48">
-        <v>-0.00510995602247578</v>
+        <v>-0.002133807735040413</v>
       </c>
       <c r="D48">
-        <v>-0.041779363861828</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05079057597044986</v>
+      </c>
+      <c r="E48">
+        <v>-0.004738240825966714</v>
+      </c>
+      <c r="F48">
+        <v>0.00964875599964001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2011759650987858</v>
+        <v>0.1996100181039628</v>
       </c>
       <c r="C49">
-        <v>-0.02122008498787494</v>
+        <v>-0.01901227038929239</v>
       </c>
       <c r="D49">
-        <v>0.01771946074505926</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007474941880969701</v>
+      </c>
+      <c r="E49">
+        <v>0.02983429626423926</v>
+      </c>
+      <c r="F49">
+        <v>0.04040797627774446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05053206650336052</v>
+        <v>0.05182505304212982</v>
       </c>
       <c r="C50">
-        <v>-0.01306474457040972</v>
+        <v>-0.01143029795626245</v>
       </c>
       <c r="D50">
-        <v>-0.01980315973881979</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02372370212077627</v>
+      </c>
+      <c r="E50">
+        <v>0.02998857872981968</v>
+      </c>
+      <c r="F50">
+        <v>0.01000811068986807</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1552974859911896</v>
+        <v>0.1495883221382096</v>
       </c>
       <c r="C52">
-        <v>-0.01970157143254991</v>
+        <v>-0.01784874604429471</v>
       </c>
       <c r="D52">
-        <v>-0.04965580420366017</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0408383381436634</v>
+      </c>
+      <c r="E52">
+        <v>0.02030633966287194</v>
+      </c>
+      <c r="F52">
+        <v>0.04372138698584112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1724328087401297</v>
+        <v>0.1711825200140773</v>
       </c>
       <c r="C53">
-        <v>-0.0193203666895364</v>
+        <v>-0.02013884307291891</v>
       </c>
       <c r="D53">
-        <v>-0.01399262937075381</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003414383076505198</v>
+      </c>
+      <c r="E53">
+        <v>0.02770679386642936</v>
+      </c>
+      <c r="F53">
+        <v>0.07317959067536893</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01809444499962303</v>
+        <v>0.02079697699596071</v>
       </c>
       <c r="C54">
-        <v>-0.01276971665079393</v>
+        <v>-0.01115586017261783</v>
       </c>
       <c r="D54">
-        <v>-0.02755233005434268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03480538143607501</v>
+      </c>
+      <c r="E54">
+        <v>0.02223147401974642</v>
+      </c>
+      <c r="F54">
+        <v>-0.001655156846534895</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1149310103496011</v>
+        <v>0.1152122315171492</v>
       </c>
       <c r="C55">
-        <v>-0.0174717162696933</v>
+        <v>-0.01776769148605294</v>
       </c>
       <c r="D55">
-        <v>-0.01153502632368353</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006402914791534734</v>
+      </c>
+      <c r="E55">
+        <v>0.02323948694892915</v>
+      </c>
+      <c r="F55">
+        <v>0.04686099604798028</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1784690677559081</v>
+        <v>0.1770649744438811</v>
       </c>
       <c r="C56">
-        <v>-0.01705932140749642</v>
+        <v>-0.01807614763742502</v>
       </c>
       <c r="D56">
-        <v>-0.009933565583861147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.004043236362472714</v>
+      </c>
+      <c r="E56">
+        <v>0.03143971818105484</v>
+      </c>
+      <c r="F56">
+        <v>0.05339766040500873</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04958486838289081</v>
+        <v>0.04503552813055278</v>
       </c>
       <c r="C58">
-        <v>-0.005904211947503091</v>
+        <v>0.000358097027114688</v>
       </c>
       <c r="D58">
-        <v>-0.05422652626355036</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07191527675751222</v>
+      </c>
+      <c r="E58">
+        <v>0.03294783112899653</v>
+      </c>
+      <c r="F58">
+        <v>-0.03657944386416662</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1602617264423866</v>
+        <v>0.1667446835099037</v>
       </c>
       <c r="C59">
-        <v>-0.0126503070419252</v>
+        <v>-0.02248168371453206</v>
       </c>
       <c r="D59">
-        <v>0.2247285856500828</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2176783329253063</v>
+      </c>
+      <c r="E59">
+        <v>-0.04673450876678527</v>
+      </c>
+      <c r="F59">
+        <v>-0.0348830498780793</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2372857179862702</v>
+        <v>0.2316722074865401</v>
       </c>
       <c r="C60">
-        <v>-0.001193006973134241</v>
+        <v>0.001947232485723404</v>
       </c>
       <c r="D60">
-        <v>-0.04551755807392101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03863560874689317</v>
+      </c>
+      <c r="E60">
+        <v>0.006254845643405707</v>
+      </c>
+      <c r="F60">
+        <v>-8.326365231222137e-05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08832813967728369</v>
+        <v>0.07999470907674576</v>
       </c>
       <c r="C61">
-        <v>-0.01855003129749329</v>
+        <v>-0.0112105724520848</v>
       </c>
       <c r="D61">
-        <v>-0.09796688928048627</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.117583766762692</v>
+      </c>
+      <c r="E61">
+        <v>0.03913278497231102</v>
+      </c>
+      <c r="F61">
+        <v>0.01343895210317201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1703381365772159</v>
+        <v>0.1690724779020491</v>
       </c>
       <c r="C62">
-        <v>-0.02118667575944523</v>
+        <v>-0.02087623707860816</v>
       </c>
       <c r="D62">
-        <v>-0.006133499407160484</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.00462293708669371</v>
+      </c>
+      <c r="E62">
+        <v>0.03225034947677045</v>
+      </c>
+      <c r="F62">
+        <v>0.03684746221136695</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04419788202613959</v>
+        <v>0.04602764189545692</v>
       </c>
       <c r="C63">
-        <v>-0.006181226617436369</v>
+        <v>-0.00173149421586908</v>
       </c>
       <c r="D63">
-        <v>-0.04317597588235241</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05956063240093686</v>
+      </c>
+      <c r="E63">
+        <v>0.02416392217429267</v>
+      </c>
+      <c r="F63">
+        <v>0.003902126345952468</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1126195166966722</v>
+        <v>0.110718189411649</v>
       </c>
       <c r="C64">
-        <v>-0.01495275677641573</v>
+        <v>-0.01140314357157443</v>
       </c>
       <c r="D64">
-        <v>-0.03217778801413444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04332647324399986</v>
+      </c>
+      <c r="E64">
+        <v>0.02264519612854455</v>
+      </c>
+      <c r="F64">
+        <v>0.02626103685690236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.13955282754648</v>
+        <v>0.1511467915553046</v>
       </c>
       <c r="C65">
-        <v>-0.03328028320344915</v>
+        <v>-0.03439564317017762</v>
       </c>
       <c r="D65">
-        <v>0.04970934725410571</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04550396145918042</v>
+      </c>
+      <c r="E65">
+        <v>0.004411977472283849</v>
+      </c>
+      <c r="F65">
+        <v>0.03648794746035047</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1401572953795523</v>
+        <v>0.1237384387546194</v>
       </c>
       <c r="C66">
-        <v>-0.02304686004917764</v>
+        <v>-0.01363944707952846</v>
       </c>
       <c r="D66">
-        <v>-0.1170512096521059</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1410572260381943</v>
+      </c>
+      <c r="E66">
+        <v>0.063868847881448</v>
+      </c>
+      <c r="F66">
+        <v>0.03429890757209143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06407901109175393</v>
+        <v>0.05713156434043209</v>
       </c>
       <c r="C67">
-        <v>-0.005599395276547496</v>
+        <v>-0.002840366997187085</v>
       </c>
       <c r="D67">
-        <v>-0.05245714950500236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05562434811448693</v>
+      </c>
+      <c r="E67">
+        <v>0.01648243206184533</v>
+      </c>
+      <c r="F67">
+        <v>-0.02963028463557989</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1038017393694545</v>
+        <v>0.1160600243905434</v>
       </c>
       <c r="C68">
-        <v>-0.02102632175475632</v>
+        <v>-0.03299970017530449</v>
       </c>
       <c r="D68">
-        <v>0.2718736843440929</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2615699367623915</v>
+      </c>
+      <c r="E68">
+        <v>-0.08755175933745364</v>
+      </c>
+      <c r="F68">
+        <v>-0.001820739292671966</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04029827928818482</v>
+        <v>0.03906396600937137</v>
       </c>
       <c r="C69">
-        <v>-0.001846737970954013</v>
+        <v>-0.001277482212848407</v>
       </c>
       <c r="D69">
-        <v>-0.007338096630660916</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007863582883601188</v>
+      </c>
+      <c r="E69">
+        <v>0.0233866195721088</v>
+      </c>
+      <c r="F69">
+        <v>0.001010101571874335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06798831246550453</v>
+        <v>0.06687529433028441</v>
       </c>
       <c r="C70">
-        <v>0.02412928242774902</v>
+        <v>0.02731450309721373</v>
       </c>
       <c r="D70">
-        <v>0.0137699752328843</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02443097621251279</v>
+      </c>
+      <c r="E70">
+        <v>-0.03044132869424173</v>
+      </c>
+      <c r="F70">
+        <v>-0.1786465210446651</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1217025808844011</v>
+        <v>0.1357259370445951</v>
       </c>
       <c r="C71">
-        <v>-0.02441510416909312</v>
+        <v>-0.03735180146107271</v>
       </c>
       <c r="D71">
-        <v>0.2858826407948018</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723941144953496</v>
+      </c>
+      <c r="E71">
+        <v>-0.09753587524102768</v>
+      </c>
+      <c r="F71">
+        <v>0.004308770033089425</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1385497448179011</v>
+        <v>0.143231490026352</v>
       </c>
       <c r="C72">
-        <v>-0.02750080803298153</v>
+        <v>-0.02754607134092152</v>
       </c>
       <c r="D72">
-        <v>-0.001048210401507078</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004806943070767151</v>
+      </c>
+      <c r="E72">
+        <v>0.03594037221003006</v>
+      </c>
+      <c r="F72">
+        <v>0.03062320474112663</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.205781648538337</v>
+        <v>0.204260514042404</v>
       </c>
       <c r="C73">
-        <v>-0.01696613564491718</v>
+        <v>-0.013250186950498</v>
       </c>
       <c r="D73">
-        <v>-0.0142515998472682</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01675443673547857</v>
+      </c>
+      <c r="E73">
+        <v>0.06324927678192038</v>
+      </c>
+      <c r="F73">
+        <v>0.03948328095703345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09301569726193044</v>
+        <v>0.0956895982028113</v>
       </c>
       <c r="C74">
-        <v>-0.01374025185301237</v>
+        <v>-0.01372647807512906</v>
       </c>
       <c r="D74">
-        <v>-0.02148538512508838</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01562082701026711</v>
+      </c>
+      <c r="E74">
+        <v>0.04340346324299929</v>
+      </c>
+      <c r="F74">
+        <v>0.05627231037849566</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.133858463614668</v>
+        <v>0.1275674019734696</v>
       </c>
       <c r="C75">
-        <v>-0.03009956535180159</v>
+        <v>-0.0285545157751486</v>
       </c>
       <c r="D75">
-        <v>-0.02829195864290085</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02827973748459799</v>
+      </c>
+      <c r="E75">
+        <v>0.0560654405408404</v>
+      </c>
+      <c r="F75">
+        <v>0.02232763516112827</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08438972313835293</v>
+        <v>0.08967685285449073</v>
       </c>
       <c r="C77">
-        <v>-0.01574331449781314</v>
+        <v>-0.008027415756843874</v>
       </c>
       <c r="D77">
-        <v>-0.09398942886378656</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1142209440529942</v>
+      </c>
+      <c r="E77">
+        <v>0.04356488090638638</v>
+      </c>
+      <c r="F77">
+        <v>0.03490351578291842</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1048089143546551</v>
+        <v>0.1006660970020022</v>
       </c>
       <c r="C78">
-        <v>-0.04650743589247204</v>
+        <v>-0.03934101083366166</v>
       </c>
       <c r="D78">
-        <v>-0.1005465900163818</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1145153092216631</v>
+      </c>
+      <c r="E78">
+        <v>0.07594324829110506</v>
+      </c>
+      <c r="F78">
+        <v>0.05011301833539195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.16367809226008</v>
+        <v>0.1636385440980245</v>
       </c>
       <c r="C79">
-        <v>-0.0241466078938751</v>
+        <v>-0.02328849762882268</v>
       </c>
       <c r="D79">
-        <v>-0.01435937649316292</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01182465153791383</v>
+      </c>
+      <c r="E79">
+        <v>0.0439637020905452</v>
+      </c>
+      <c r="F79">
+        <v>0.01179359776275263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08630998085466661</v>
+        <v>0.08243618937867349</v>
       </c>
       <c r="C80">
-        <v>-0.001882271427287458</v>
+        <v>0.0006068351026339385</v>
       </c>
       <c r="D80">
-        <v>-0.04366664352289364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05528345123664561</v>
+      </c>
+      <c r="E80">
+        <v>0.03535530039153748</v>
+      </c>
+      <c r="F80">
+        <v>-0.01962759986915476</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1201250493073836</v>
+        <v>0.1181478057439145</v>
       </c>
       <c r="C81">
-        <v>-0.03232710760905431</v>
+        <v>-0.03203325292968955</v>
       </c>
       <c r="D81">
-        <v>-0.02267499434204238</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01356513044075549</v>
+      </c>
+      <c r="E81">
+        <v>0.05469274907119188</v>
+      </c>
+      <c r="F81">
+        <v>0.01986408754969429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.165976081290742</v>
+        <v>0.1661620188050359</v>
       </c>
       <c r="C82">
-        <v>-0.02486051495056973</v>
+        <v>-0.02552716956439417</v>
       </c>
       <c r="D82">
-        <v>-0.01315497985100011</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001179238047673355</v>
+      </c>
+      <c r="E82">
+        <v>0.02407877238679662</v>
+      </c>
+      <c r="F82">
+        <v>0.08098659523783296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06721964118808414</v>
+        <v>0.05870401676514871</v>
       </c>
       <c r="C83">
-        <v>-0.006231862879361171</v>
+        <v>-0.002983905627578671</v>
       </c>
       <c r="D83">
-        <v>-0.03391046988745969</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04945784180804551</v>
+      </c>
+      <c r="E83">
+        <v>0.002870506055273038</v>
+      </c>
+      <c r="F83">
+        <v>-0.02922692515000391</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06471589535011986</v>
+        <v>0.05851164467942187</v>
       </c>
       <c r="C84">
-        <v>-0.01493223992038989</v>
+        <v>-0.01080233732897293</v>
       </c>
       <c r="D84">
-        <v>-0.06459003086263225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0727118097726446</v>
+      </c>
+      <c r="E84">
+        <v>0.01471564686391488</v>
+      </c>
+      <c r="F84">
+        <v>0.01409036732121872</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1368758691957255</v>
+        <v>0.1354107011062922</v>
       </c>
       <c r="C85">
-        <v>-0.02845715625407211</v>
+        <v>-0.02850936605389961</v>
       </c>
       <c r="D85">
-        <v>-0.01751303890005216</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007926820734398045</v>
+      </c>
+      <c r="E85">
+        <v>0.03493914430625874</v>
+      </c>
+      <c r="F85">
+        <v>0.04694578147986082</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1031701134672531</v>
+        <v>0.09334831065542143</v>
       </c>
       <c r="C86">
-        <v>0.002612223810114223</v>
+        <v>0.006363838011424238</v>
       </c>
       <c r="D86">
-        <v>0.007479402885147197</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05034789824276424</v>
+      </c>
+      <c r="E86">
+        <v>0.2434455735498403</v>
+      </c>
+      <c r="F86">
+        <v>-0.9025107866776193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.100600182902884</v>
+        <v>0.09418030816770684</v>
       </c>
       <c r="C87">
-        <v>-0.02890734319913213</v>
+        <v>-0.01921415967966436</v>
       </c>
       <c r="D87">
-        <v>-0.06567723246833625</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09468237384887183</v>
+      </c>
+      <c r="E87">
+        <v>-0.05259094225381048</v>
+      </c>
+      <c r="F87">
+        <v>0.04717872021254598</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0609105921917661</v>
+        <v>0.06029127907155363</v>
       </c>
       <c r="C88">
-        <v>-0.005286269170149789</v>
+        <v>-0.002250025815723465</v>
       </c>
       <c r="D88">
-        <v>-0.05404820802513666</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04949280754848959</v>
+      </c>
+      <c r="E88">
+        <v>0.02396740218747918</v>
+      </c>
+      <c r="F88">
+        <v>0.01539932514146954</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1157863033335556</v>
+        <v>0.1265824529933727</v>
       </c>
       <c r="C89">
-        <v>-0.001681707004627974</v>
+        <v>-0.01275421615293695</v>
       </c>
       <c r="D89">
-        <v>0.2602816270560234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.243691678974873</v>
+      </c>
+      <c r="E89">
+        <v>-0.08928316167870777</v>
+      </c>
+      <c r="F89">
+        <v>-0.01245245987683881</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1325869260846</v>
+        <v>0.1503741311652227</v>
       </c>
       <c r="C90">
-        <v>-0.02118578043541771</v>
+        <v>-0.03404810813899194</v>
       </c>
       <c r="D90">
-        <v>0.2737798356569693</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.270085344545831</v>
+      </c>
+      <c r="E90">
+        <v>-0.1136958467861353</v>
+      </c>
+      <c r="F90">
+        <v>-0.01255643904486113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1199022575716014</v>
+        <v>0.1213256355650224</v>
       </c>
       <c r="C91">
-        <v>-0.01926659008781</v>
+        <v>-0.02019828128432792</v>
       </c>
       <c r="D91">
-        <v>0.008877797540354403</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01695495208801268</v>
+      </c>
+      <c r="E91">
+        <v>0.05410614074418024</v>
+      </c>
+      <c r="F91">
+        <v>-0.0006112925758177745</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.136693406974513</v>
+        <v>0.1464795947542247</v>
       </c>
       <c r="C92">
-        <v>-0.01110015356759239</v>
+        <v>-0.02449319502787103</v>
       </c>
       <c r="D92">
-        <v>0.3088315867315172</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2905504527550319</v>
+      </c>
+      <c r="E92">
+        <v>-0.1015106007359155</v>
+      </c>
+      <c r="F92">
+        <v>-0.02123656064594211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1362064250452126</v>
+        <v>0.1508896967368009</v>
       </c>
       <c r="C93">
-        <v>-0.01678572358695444</v>
+        <v>-0.02894647905196924</v>
       </c>
       <c r="D93">
-        <v>0.2691622339508083</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2653121697149163</v>
+      </c>
+      <c r="E93">
+        <v>-0.07613328759215994</v>
+      </c>
+      <c r="F93">
+        <v>-0.00198874160599523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1346827040210186</v>
+        <v>0.1282180000392431</v>
       </c>
       <c r="C94">
-        <v>-0.02721170229471082</v>
+        <v>-0.02500171452350077</v>
       </c>
       <c r="D94">
-        <v>-0.04214044126761866</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04002762877753988</v>
+      </c>
+      <c r="E94">
+        <v>0.05617417780950409</v>
+      </c>
+      <c r="F94">
+        <v>0.03529368159852176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1267098372676144</v>
+        <v>0.1265842303929279</v>
       </c>
       <c r="C95">
-        <v>-0.01062630118785202</v>
+        <v>-0.003362106089836954</v>
       </c>
       <c r="D95">
-        <v>-0.07607116853179491</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09811117112967126</v>
+      </c>
+      <c r="E95">
+        <v>0.05322341076767761</v>
+      </c>
+      <c r="F95">
+        <v>-0.00566452890122715</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1182541173230413</v>
+        <v>0.1104257473601165</v>
       </c>
       <c r="C96">
-        <v>0.9871896501401308</v>
+        <v>0.9869729113076916</v>
       </c>
       <c r="D96">
-        <v>0.009174333684439357</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05127671993143818</v>
+      </c>
+      <c r="E96">
+        <v>0.05236645994035206</v>
+      </c>
+      <c r="F96">
+        <v>0.04310032562264735</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1926377104000489</v>
+        <v>0.1925680587875095</v>
       </c>
       <c r="C97">
-        <v>0.005979735981819913</v>
+        <v>0.006390543871515574</v>
       </c>
       <c r="D97">
-        <v>0.01487681411569041</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02081172073014677</v>
+      </c>
+      <c r="E97">
+        <v>0.0207449906515346</v>
+      </c>
+      <c r="F97">
+        <v>-0.09131402673479319</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1996374215796124</v>
+        <v>0.2066027048377997</v>
       </c>
       <c r="C98">
-        <v>-0.01116488729798179</v>
+        <v>-0.007246330116103272</v>
       </c>
       <c r="D98">
-        <v>-0.01238219931899012</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01350795359227318</v>
+      </c>
+      <c r="E98">
+        <v>-0.07473239779733955</v>
+      </c>
+      <c r="F98">
+        <v>-0.09212309156112707</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05643572726136832</v>
+        <v>0.05478982847332198</v>
       </c>
       <c r="C99">
-        <v>0.001989470815013482</v>
+        <v>0.004428653659225307</v>
       </c>
       <c r="D99">
-        <v>-0.02249752252282155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03832250035193114</v>
+      </c>
+      <c r="E99">
+        <v>0.02124084444751821</v>
+      </c>
+      <c r="F99">
+        <v>0.003317595117108607</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1420577526778369</v>
+        <v>0.1283567186488247</v>
       </c>
       <c r="C100">
-        <v>0.03744139621214797</v>
+        <v>0.05307620441913188</v>
       </c>
       <c r="D100">
-        <v>-0.4265905203583209</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3497607133721465</v>
+      </c>
+      <c r="E100">
+        <v>-0.8829331238159913</v>
+      </c>
+      <c r="F100">
+        <v>-0.1693595943177418</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02630265475404928</v>
+        <v>0.02881775184545152</v>
       </c>
       <c r="C101">
-        <v>-0.009868994075526412</v>
+        <v>-0.008788044496905956</v>
       </c>
       <c r="D101">
-        <v>-0.02090994324290885</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.030933209562525</v>
+      </c>
+      <c r="E101">
+        <v>0.0134838043393768</v>
+      </c>
+      <c r="F101">
+        <v>-0.01374953474000812</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
